--- a/subtema.xlsx
+++ b/subtema.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MPRJ\Google Drive\INOVA\API_OUVIDORIA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB696C7C-B66D-4AEE-A580-AF7D8BAACEDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D951882-F14C-4806-AC33-A0710D518164}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="18420" yWindow="1524" windowWidth="17280" windowHeight="8994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="subtema" sheetId="1" r:id="rId1"/>
@@ -406,9 +406,6 @@
     <t>USO DA MÁQUINA PÚBLICA EM FAVOR DO CANDIDATO</t>
   </si>
   <si>
-    <t>excec_penal</t>
-  </si>
-  <si>
     <t>ASSISTÊNCIA MATERIAL</t>
   </si>
   <si>
@@ -668,6 +665,9 @@
   </si>
   <si>
     <t>LICITAÇÕES</t>
+  </si>
+  <si>
+    <t>exec_penal</t>
   </si>
 </sst>
 </file>
@@ -1510,8 +1510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:XFD57"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="H145" sqref="H145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1777,7 +1777,7 @@
         <v>26</v>
       </c>
       <c r="B33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1793,7 +1793,7 @@
         <v>26</v>
       </c>
       <c r="B35" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1801,7 +1801,7 @@
         <v>26</v>
       </c>
       <c r="B36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1825,7 +1825,7 @@
         <v>26</v>
       </c>
       <c r="B39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1833,7 +1833,7 @@
         <v>26</v>
       </c>
       <c r="B40" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1841,7 +1841,7 @@
         <v>26</v>
       </c>
       <c r="B41" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1849,7 +1849,7 @@
         <v>26</v>
       </c>
       <c r="B42" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -2750,15 +2750,15 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" t="s">
+        <v>215</v>
+      </c>
+      <c r="B155" t="s">
         <v>128</v>
-      </c>
-      <c r="B155" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" t="s">
-        <v>128</v>
+        <v>215</v>
       </c>
       <c r="B156" t="s">
         <v>28</v>
@@ -2766,15 +2766,15 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" t="s">
-        <v>128</v>
+        <v>215</v>
       </c>
       <c r="B157" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" t="s">
-        <v>128</v>
+        <v>215</v>
       </c>
       <c r="B158" t="s">
         <v>36</v>
@@ -2782,47 +2782,47 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" t="s">
-        <v>128</v>
+        <v>215</v>
       </c>
       <c r="B159" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" t="s">
-        <v>128</v>
+        <v>215</v>
       </c>
       <c r="B160" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" t="s">
+        <v>132</v>
+      </c>
+      <c r="B161" t="s">
         <v>133</v>
-      </c>
-      <c r="B161" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B162" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B163" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B164" t="s">
         <v>36</v>
@@ -2830,23 +2830,23 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" t="s">
+        <v>136</v>
+      </c>
+      <c r="B165" t="s">
         <v>137</v>
-      </c>
-      <c r="B165" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B166" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B167" t="s">
         <v>103</v>
@@ -2854,15 +2854,15 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B168" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B169" t="s">
         <v>46</v>
@@ -2870,7 +2870,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B170" t="s">
         <v>104</v>
@@ -2878,7 +2878,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B171" t="s">
         <v>105</v>
@@ -2886,7 +2886,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B172" t="s">
         <v>5</v>
@@ -2894,15 +2894,15 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B173" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B174" t="s">
         <v>36</v>
@@ -2910,15 +2910,15 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B175" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B176" t="s">
         <v>23</v>
@@ -2926,47 +2926,47 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B177" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B178" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B179" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B180" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B181" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B182" t="s">
         <v>5</v>
@@ -2974,31 +2974,31 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" t="s">
+        <v>145</v>
+      </c>
+      <c r="B183" t="s">
         <v>146</v>
-      </c>
-      <c r="B183" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B184" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B185" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B186" t="s">
         <v>36</v>
@@ -3006,63 +3006,63 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" t="s">
+        <v>149</v>
+      </c>
+      <c r="B187" t="s">
         <v>150</v>
-      </c>
-      <c r="B187" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B188" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B189" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B190" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B191" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B192" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B193" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B194" t="s">
         <v>5</v>
@@ -3070,15 +3070,15 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B195" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B196" t="s">
         <v>36</v>
@@ -3086,7 +3086,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B197" t="s">
         <v>23</v>
@@ -3094,63 +3094,63 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B198" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B199" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B200" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B201" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B202" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B203" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" t="s">
+        <v>162</v>
+      </c>
+      <c r="B204" t="s">
         <v>163</v>
-      </c>
-      <c r="B204" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B205" t="s">
         <v>95</v>
@@ -3158,7 +3158,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B206" t="s">
         <v>5</v>
@@ -3166,7 +3166,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B207" t="s">
         <v>96</v>
@@ -3174,7 +3174,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B208" t="s">
         <v>36</v>
@@ -3182,7 +3182,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B209" t="s">
         <v>23</v>
@@ -3190,15 +3190,15 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B210" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B211" t="s">
         <v>47</v>
@@ -3206,15 +3206,15 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" t="s">
+        <v>165</v>
+      </c>
+      <c r="B212" t="s">
         <v>166</v>
-      </c>
-      <c r="B212" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B213" t="s">
         <v>5</v>
@@ -3222,7 +3222,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B214" t="s">
         <v>96</v>
@@ -3230,7 +3230,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B215" t="s">
         <v>36</v>
@@ -3238,31 +3238,31 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" t="s">
+        <v>167</v>
+      </c>
+      <c r="B216" t="s">
         <v>168</v>
-      </c>
-      <c r="B216" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B217" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B218" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B219" t="s">
         <v>36</v>
@@ -3270,71 +3270,71 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" t="s">
+        <v>170</v>
+      </c>
+      <c r="B220" t="s">
         <v>171</v>
-      </c>
-      <c r="B220" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B221" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B222" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B223" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B224" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B225" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B226" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B227" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B228" t="s">
         <v>51</v>
@@ -3342,15 +3342,15 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B229" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B230" t="s">
         <v>47</v>
@@ -3358,39 +3358,39 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B231" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B232" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B233" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B234" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B235" t="s">
         <v>48</v>
@@ -3398,15 +3398,15 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B236" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B237" t="s">
         <v>5</v>
@@ -3414,7 +3414,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B238" t="s">
         <v>96</v>
@@ -3422,79 +3422,79 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B239" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B240" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B241" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B242" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B243" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B244" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B245" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B246" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B247" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B248" t="s">
         <v>23</v>
@@ -3502,87 +3502,87 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B249" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B250" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B251" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" t="s">
+        <v>197</v>
+      </c>
+      <c r="B252" t="s">
         <v>198</v>
-      </c>
-      <c r="B252" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B253" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B254" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B255" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B256" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B257" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B258" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B259" t="s">
         <v>5</v>
@@ -3590,7 +3590,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B260" t="s">
         <v>96</v>
@@ -3598,15 +3598,15 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B261" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B262" t="s">
         <v>36</v>
@@ -3614,23 +3614,23 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B263" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B264" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B265" t="s">
         <v>23</v>
